--- a/img/protocols/riboitp/itp_reagents_and_materials.xlsx
+++ b/img/protocols/riboitp/itp_reagents_and_materials.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ass2293/Documents/ITP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cc67379/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{316BCE30-1B56-6043-AE46-886482E1821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5C52F-D90C-114A-9D53-4CAA31DB6ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{036F661B-4B92-F741-BAAE-1DBB038D346D}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="27640" windowHeight="15860" activeTab="2" xr2:uid="{036F661B-4B92-F741-BAAE-1DBB038D346D}"/>
   </bookViews>
   <sheets>
     <sheet name="Reagent List" sheetId="2" r:id="rId1"/>
-    <sheet name="Materials" sheetId="1" r:id="rId2"/>
+    <sheet name="Oligos" sheetId="5" r:id="rId2"/>
+    <sheet name="Equipment" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
   <si>
     <t>RBP-50</t>
   </si>
@@ -110,9 +104,6 @@
     <t>Chip Molds</t>
   </si>
   <si>
-    <t>$400-$1000</t>
-  </si>
-  <si>
     <t>AT126D</t>
   </si>
   <si>
@@ -122,18 +113,12 @@
     <t>UV Light Source</t>
   </si>
   <si>
-    <t>Approximate Cost</t>
-  </si>
-  <si>
     <t>Reference Number</t>
   </si>
   <si>
     <t>Brand</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>EC6885BOX</t>
   </si>
   <si>
@@ -191,9 +176,6 @@
     <t>10x TBE</t>
   </si>
   <si>
-    <t>$320</t>
-  </si>
-  <si>
     <t>C05030021</t>
   </si>
   <si>
@@ -201,9 +183,6 @@
   </si>
   <si>
     <t>D-Plex Unique Dual Indexes for Illumina - Set A (24 rxn)</t>
-  </si>
-  <si>
-    <t>$1,320</t>
   </si>
   <si>
     <t>C0503001</t>
@@ -347,36 +326,24 @@
     <t>Triton X-100</t>
   </si>
   <si>
-    <t>$103.00</t>
-  </si>
-  <si>
     <t>650501-1L</t>
   </si>
   <si>
     <t>Acetone</t>
   </si>
   <si>
-    <t>$79.30</t>
-  </si>
-  <si>
     <t>322415-1L</t>
   </si>
   <si>
     <t>Methanol</t>
   </si>
   <si>
-    <t>$156.90</t>
-  </si>
-  <si>
     <t>SA56-500</t>
   </si>
   <si>
     <t>6M HCl</t>
   </si>
   <si>
-    <t>$45.26</t>
-  </si>
-  <si>
     <t>40520008-1</t>
   </si>
   <si>
@@ -386,18 +353,12 @@
     <t>0.5M EGTA</t>
   </si>
   <si>
-    <t>$144.00</t>
-  </si>
-  <si>
     <t>M1442-100ML</t>
   </si>
   <si>
     <t>1M MOPS</t>
   </si>
   <si>
-    <t>$75.60</t>
-  </si>
-  <si>
     <t>795429-500G</t>
   </si>
   <si>
@@ -423,18 +384,115 @@
   </si>
   <si>
     <t>Reagent</t>
+  </si>
+  <si>
+    <t>Blue Pippin System</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>Agilent Technologies</t>
+  </si>
+  <si>
+    <t>BP1333-1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2100 BioAnalyzer Instrument</t>
+  </si>
+  <si>
+    <t>G2939BA</t>
+  </si>
+  <si>
+    <t>13-687-712</t>
+  </si>
+  <si>
+    <t>Thermo Scientific</t>
+  </si>
+  <si>
+    <t>Thermal Mixer with Blocks</t>
+  </si>
+  <si>
+    <t>Mastercycler X50s</t>
+  </si>
+  <si>
+    <t>Eppendorf</t>
+  </si>
+  <si>
+    <t>/5ATTO488N/CCTCCTTGTATAAATCCTGGTTGCTGTCTCTTTAT/3ddC/</t>
+  </si>
+  <si>
+    <t>Oligos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 nt fluorescent DNA Marker </t>
+  </si>
+  <si>
+    <t>19 nt fluorescent DNA Marker</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>100 nmole</t>
+  </si>
+  <si>
+    <t>Purification Method</t>
+  </si>
+  <si>
+    <t>Dual HPLC</t>
+  </si>
+  <si>
+    <t>5' Modification</t>
+  </si>
+  <si>
+    <t>3' Modification</t>
+  </si>
+  <si>
+    <t>ddC</t>
+  </si>
+  <si>
+    <t>ATTO488N</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>/5ATTO488N/CTGCTGGAGTTCGTGACC/3ddC/</t>
+  </si>
+  <si>
+    <t>36 nt fluorescent DNA Marker</t>
+  </si>
+  <si>
+    <t>MLX-106</t>
+  </si>
+  <si>
+    <t>Crystal Technologies</t>
+  </si>
+  <si>
+    <t>Mini Centrifuge</t>
+  </si>
+  <si>
+    <t>Vortexer</t>
+  </si>
+  <si>
+    <t>DLab</t>
+  </si>
+  <si>
+    <t>Equipment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,11 +528,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
@@ -491,13 +544,39 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times Roman"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,22 +599,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,48 +613,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -902,544 +991,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5598F2-8274-3548-8914-4B1C81BE5519}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A8" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="8"/>
-    <col min="6" max="6" width="10.83203125" style="10"/>
-    <col min="7" max="8" width="10.83203125" style="9"/>
-    <col min="9" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="49.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28">
-      <c r="A1" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:10" ht="28">
+      <c r="A1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="14">
+      <c r="A2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C2" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14">
+      <c r="A3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14">
+      <c r="A4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="14">
+      <c r="A5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="14">
+      <c r="A6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14">
+      <c r="A9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14">
+      <c r="A10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14">
+      <c r="A11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="14">
+      <c r="A12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="14">
+      <c r="A13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="14">
+      <c r="A14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="14">
+      <c r="A15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="14">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14">
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="14">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14">
+      <c r="A19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14">
+      <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14">
+      <c r="A22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14">
+      <c r="A23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14">
+      <c r="A24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14">
+      <c r="A25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14">
+      <c r="A26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14">
+      <c r="A27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14">
+      <c r="A29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14">
+      <c r="A30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14">
+      <c r="A31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14">
+      <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="14">
+      <c r="A33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14">
+      <c r="A35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14">
+      <c r="A36" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14">
+      <c r="A37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="23">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="14">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14">
+      <c r="A41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="23">
-        <v>59.1</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="15" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="14">
+      <c r="A42" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="12">
-        <v>114</v>
-      </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="12">
-        <v>42.4</v>
-      </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="12">
-        <v>69.2</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="16">
-        <v>129</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="12">
-        <v>72.2</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="12">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="12">
-        <v>122</v>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="12">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="12">
-        <v>78.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="12">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="12">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="12">
-        <v>150.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="12">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="12">
-        <v>68.900000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="16">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="12">
-        <v>454.71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="12">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="12">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="12">
-        <v>96.25</v>
-      </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="12">
-        <v>80.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="12">
-        <v>29.23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="12">
-        <v>121.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="12">
-        <v>193</v>
-      </c>
+      <c r="C42" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,176 +1514,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B17E34C-18F5-BE46-9CBE-EA0B4F4518C5}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6BCB68-6A12-1C4B-881C-01B1C7F6B256}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="30" customFormat="1">
+      <c r="A1" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B17E34C-18F5-BE46-9CBE-EA0B4F4518C5}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2">
-        <v>474.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2">
-        <v>1177.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
-        <v>3269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>32</v>
+      <c r="C10" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="18">
+        <v>61311000010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="18">
+        <v>8031102000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>